--- a/VINAY STAFF.xlsx
+++ b/VINAY STAFF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="82">
   <si>
     <t xml:space="preserve">opening balance </t>
   </si>
@@ -239,6 +239,27 @@
   </si>
   <si>
     <t>10.10.24</t>
+  </si>
+  <si>
+    <t>11.10.24</t>
+  </si>
+  <si>
+    <t>SALARY AAYI</t>
+  </si>
+  <si>
+    <t>12.10.24</t>
+  </si>
+  <si>
+    <t>13.10.24</t>
+  </si>
+  <si>
+    <t>14.10.24</t>
+  </si>
+  <si>
+    <t>15.10.24</t>
+  </si>
+  <si>
+    <t>16.10.24</t>
   </si>
 </sst>
 </file>
@@ -858,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F279"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A276" sqref="A276"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A321" sqref="A321:F321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3932,7 +3953,9 @@
       <c r="C277" s="3">
         <v>70</v>
       </c>
-      <c r="D277" s="8"/>
+      <c r="D277" s="8">
+        <v>3000</v>
+      </c>
       <c r="E277" s="3"/>
       <c r="F277" s="4"/>
     </row>
@@ -3960,15 +3983,561 @@
       <c r="D279" s="9"/>
       <c r="E279" s="2">
         <f>A277+C279-D277</f>
-        <v>5110</v>
+        <v>2110</v>
       </c>
       <c r="F279" s="5">
         <f>E279+F276</f>
-        <v>5140</v>
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="282" spans="1:6" ht="18.75">
+      <c r="A282" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B282" s="20"/>
+      <c r="C282" s="20"/>
+      <c r="D282" s="20"/>
+      <c r="E282" s="20"/>
+      <c r="F282" s="21"/>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F283" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="17">
+        <f>E279</f>
+        <v>2110</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C284" s="3">
+        <v>11200</v>
+      </c>
+      <c r="D284" s="8">
+        <v>11200</v>
+      </c>
+      <c r="E284" s="3"/>
+      <c r="F284" s="4"/>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="17"/>
+      <c r="B285" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" s="3">
+        <v>100</v>
+      </c>
+      <c r="D285" s="8"/>
+      <c r="E285" s="3"/>
+      <c r="F285" s="4"/>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="17"/>
+      <c r="B286" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C286" s="3">
+        <v>200</v>
+      </c>
+      <c r="D286" s="8"/>
+      <c r="E286" s="3"/>
+      <c r="F286" s="4"/>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="17"/>
+      <c r="B287" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" s="3">
+        <v>300</v>
+      </c>
+      <c r="D287" s="8"/>
+      <c r="E287" s="3"/>
+      <c r="F287" s="4"/>
+    </row>
+    <row r="288" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A288" s="1"/>
+      <c r="B288" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" s="2">
+        <f>SUM(C284:C287)</f>
+        <v>11800</v>
+      </c>
+      <c r="D288" s="9"/>
+      <c r="E288" s="2">
+        <f>A284+C288-D284</f>
+        <v>2710</v>
+      </c>
+      <c r="F288" s="5">
+        <f>E288+F283</f>
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="291" spans="1:6" ht="18.75">
+      <c r="A291" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B291" s="20"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="20"/>
+      <c r="E291" s="20"/>
+      <c r="F291" s="21"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F292" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="17">
+        <f>E288</f>
+        <v>2710</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C293" s="3">
+        <v>80</v>
+      </c>
+      <c r="D293" s="8"/>
+      <c r="E293" s="3"/>
+      <c r="F293" s="4"/>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="17"/>
+      <c r="B294" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" s="3">
+        <v>300</v>
+      </c>
+      <c r="D294" s="8"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="4"/>
+    </row>
+    <row r="295" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A295" s="1"/>
+      <c r="B295" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295" s="2">
+        <f>SUM(C293:C294)</f>
+        <v>380</v>
+      </c>
+      <c r="D295" s="9"/>
+      <c r="E295" s="2">
+        <f>A293+C295-D293</f>
+        <v>3090</v>
+      </c>
+      <c r="F295" s="5">
+        <f>E295+F292</f>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="298" spans="1:6" ht="18.75">
+      <c r="A298" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B298" s="20"/>
+      <c r="C298" s="20"/>
+      <c r="D298" s="20"/>
+      <c r="E298" s="20"/>
+      <c r="F298" s="21"/>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F299" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="17">
+        <f>E295</f>
+        <v>3090</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C300" s="3">
+        <v>70</v>
+      </c>
+      <c r="D300" s="8"/>
+      <c r="E300" s="3"/>
+      <c r="F300" s="4"/>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="17"/>
+      <c r="B301" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" s="3">
+        <v>300</v>
+      </c>
+      <c r="D301" s="8"/>
+      <c r="E301" s="3"/>
+      <c r="F301" s="4"/>
+    </row>
+    <row r="302" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A302" s="1"/>
+      <c r="B302" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" s="2">
+        <f>SUM(C300:C301)</f>
+        <v>370</v>
+      </c>
+      <c r="D302" s="9"/>
+      <c r="E302" s="2">
+        <f>A300+C302-D300</f>
+        <v>3460</v>
+      </c>
+      <c r="F302" s="5">
+        <f>E302+F299</f>
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="305" spans="1:6" ht="18.75">
+      <c r="A305" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
+      <c r="D305" s="20"/>
+      <c r="E305" s="20"/>
+      <c r="F305" s="21"/>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F306" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="17">
+        <f>E302</f>
+        <v>3460</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C307" s="3">
+        <v>80</v>
+      </c>
+      <c r="D307" s="8"/>
+      <c r="E307" s="3"/>
+      <c r="F307" s="4"/>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="17"/>
+      <c r="B308" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" s="3">
+        <v>300</v>
+      </c>
+      <c r="D308" s="8"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="4"/>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="18"/>
+      <c r="B309" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C309" s="11">
+        <v>150</v>
+      </c>
+      <c r="D309" s="12"/>
+      <c r="E309" s="11"/>
+      <c r="F309" s="13"/>
+    </row>
+    <row r="310" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A310" s="1"/>
+      <c r="B310" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" s="2">
+        <f>SUM(C307:C309)</f>
+        <v>530</v>
+      </c>
+      <c r="D310" s="9"/>
+      <c r="E310" s="2">
+        <f>A307+C310-D307</f>
+        <v>3990</v>
+      </c>
+      <c r="F310" s="5">
+        <f>E310+F306</f>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="313" spans="1:6" ht="18.75">
+      <c r="A313" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B313" s="20"/>
+      <c r="C313" s="20"/>
+      <c r="D313" s="20"/>
+      <c r="E313" s="20"/>
+      <c r="F313" s="21"/>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F314" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="17">
+        <f>E310</f>
+        <v>3990</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C315" s="3">
+        <v>70</v>
+      </c>
+      <c r="D315" s="8"/>
+      <c r="E315" s="3"/>
+      <c r="F315" s="4"/>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="17"/>
+      <c r="B316" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" s="3">
+        <v>300</v>
+      </c>
+      <c r="D316" s="8"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="4"/>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="18"/>
+      <c r="B317" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C317" s="11">
+        <v>200</v>
+      </c>
+      <c r="D317" s="12"/>
+      <c r="E317" s="11"/>
+      <c r="F317" s="13"/>
+    </row>
+    <row r="318" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A318" s="1"/>
+      <c r="B318" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" s="2">
+        <f>SUM(C315:C317)</f>
+        <v>570</v>
+      </c>
+      <c r="D318" s="9"/>
+      <c r="E318" s="2">
+        <f>A315+C318-D315</f>
+        <v>4560</v>
+      </c>
+      <c r="F318" s="5">
+        <f>E318+F314</f>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="321" spans="1:6" ht="18.75">
+      <c r="A321" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B321" s="20"/>
+      <c r="C321" s="20"/>
+      <c r="D321" s="20"/>
+      <c r="E321" s="20"/>
+      <c r="F321" s="21"/>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F322" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="17">
+        <f>E318</f>
+        <v>4560</v>
+      </c>
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
+      <c r="D323" s="8"/>
+      <c r="E323" s="3"/>
+      <c r="F323" s="4"/>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="17"/>
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="8"/>
+      <c r="E324" s="3"/>
+      <c r="F324" s="4"/>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="18"/>
+      <c r="B325" s="11"/>
+      <c r="C325" s="11"/>
+      <c r="D325" s="12"/>
+      <c r="E325" s="11"/>
+      <c r="F325" s="13"/>
+    </row>
+    <row r="326" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A326" s="1"/>
+      <c r="B326" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326" s="2">
+        <f>SUM(C323:C325)</f>
+        <v>0</v>
+      </c>
+      <c r="D326" s="9"/>
+      <c r="E326" s="2">
+        <f>A323+C326-D323</f>
+        <v>4560</v>
+      </c>
+      <c r="F326" s="5">
+        <f>E326+F322</f>
+        <v>4590</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="42">
+    <mergeCell ref="A321:F321"/>
+    <mergeCell ref="A282:F282"/>
+    <mergeCell ref="A291:F291"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A305:F305"/>
+    <mergeCell ref="A313:F313"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="A169:F169"/>
+    <mergeCell ref="A177:F177"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A192:F192"/>
+    <mergeCell ref="A200:F200"/>
+    <mergeCell ref="A207:F207"/>
+    <mergeCell ref="A215:F215"/>
     <mergeCell ref="A259:F259"/>
     <mergeCell ref="A268:F268"/>
     <mergeCell ref="A275:F275"/>
@@ -3977,34 +4546,6 @@
     <mergeCell ref="A237:F237"/>
     <mergeCell ref="A245:F245"/>
     <mergeCell ref="A252:F252"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A192:F192"/>
-    <mergeCell ref="A200:F200"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="A215:F215"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="A169:F169"/>
-    <mergeCell ref="A177:F177"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="A152:F152"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
